--- a/BD/Prueba.xlsx
+++ b/BD/Prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seba_\source\repos\EL BUEN SABOR\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seba_\Source\Repos\EL BUEN SABOR\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CFE8DF-A01A-4D66-8B27-5380236B5C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E8555-B974-4102-A339-995022C893F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4470" xr2:uid="{ABF19984-B040-4B8A-B3DE-DB4DD1DCE86F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Cliente</t>
   </si>
@@ -80,15 +80,9 @@
     <t>TipoEnvio</t>
   </si>
   <si>
-    <t>Detalle</t>
-  </si>
-  <si>
     <t>IdDetalle</t>
   </si>
   <si>
-    <t>Articulo</t>
-  </si>
-  <si>
     <t>IdArticulo</t>
   </si>
   <si>
@@ -101,61 +95,67 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>EsInsumo</t>
-  </si>
-  <si>
-    <t>Pan de lomo</t>
-  </si>
-  <si>
-    <t>Manufacturado</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>bife Lomo</t>
   </si>
   <si>
-    <t>Cerveza</t>
-  </si>
-  <si>
     <t>ganancia</t>
   </si>
   <si>
-    <t>Gaseosa</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Costo</t>
   </si>
   <si>
     <t>IdManofacturado</t>
   </si>
   <si>
-    <t>lomo</t>
-  </si>
-  <si>
     <t>IdManofacturadoDetalle</t>
   </si>
   <si>
-    <t>ManofacturadoDetalle</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
     <t>Id ManofacturadoDetalle</t>
   </si>
   <si>
-    <t>Lechuga</t>
-  </si>
-  <si>
-    <t>Tomate</t>
-  </si>
-  <si>
-    <t>Bife Lomo</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>Detalle Pedido</t>
+  </si>
+  <si>
+    <t>bife</t>
+  </si>
+  <si>
+    <t>INSUMO</t>
+  </si>
+  <si>
+    <t>CANTIDADES</t>
+  </si>
+  <si>
+    <t>NO INSUMO</t>
+  </si>
+  <si>
+    <t>IdNoInsumo</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>PLATO</t>
+  </si>
+  <si>
+    <t>IdPLATO</t>
+  </si>
+  <si>
+    <t>IdNOINSUMO</t>
+  </si>
+  <si>
+    <t>Coca 500 lts</t>
+  </si>
+  <si>
+    <t>Heineken 1 lts</t>
+  </si>
+  <si>
+    <t>prepizza</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,19 +264,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,46 +306,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,536 +668,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A2D7DD-CC15-46CF-BF1D-64FE974C24B3}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="14.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="18" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2">
+        <v>25</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="2" t="s">
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="I20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="J21" s="14"/>
+      <c r="K21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="10">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="16">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="I31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+      <c r="I32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="J33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="8">
+        <v>10</v>
+      </c>
+      <c r="L33" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2">
+        <v>50</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="2">
+        <v>15</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="8">
+        <v>10</v>
+      </c>
+      <c r="L34" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="2"/>
+      <c r="I35" s="8">
+        <v>3</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="8">
+        <v>10</v>
+      </c>
+      <c r="L35" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2"/>
+      <c r="I36" s="8">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="3">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3">
-        <v>25</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="2"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="2"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="H8:M8"/>
+  <mergeCells count="27">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD/Prueba.xlsx
+++ b/BD/Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seba_\Source\Repos\EL BUEN SABOR\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E8555-B974-4102-A339-995022C893F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864BC8B-96A7-4D09-AAF2-21814D7818A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4470" xr2:uid="{ABF19984-B040-4B8A-B3DE-DB4DD1DCE86F}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
-  <si>
-    <t>Cliente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Telefono</t>
   </si>
@@ -56,33 +53,18 @@
     <t>Localidad</t>
   </si>
   <si>
-    <t>Pedido</t>
-  </si>
-  <si>
     <t>EstadoPedido</t>
   </si>
   <si>
-    <t>IdCliente</t>
-  </si>
-  <si>
     <t>FechaRegistro</t>
   </si>
   <si>
-    <t>IdPedido</t>
-  </si>
-  <si>
     <t>FechaHoraPedido</t>
   </si>
   <si>
-    <t>FechaHoraFactura</t>
-  </si>
-  <si>
     <t>TipoEnvio</t>
   </si>
   <si>
-    <t>IdDetalle</t>
-  </si>
-  <si>
     <t>IdArticulo</t>
   </si>
   <si>
@@ -101,30 +83,12 @@
     <t>ganancia</t>
   </si>
   <si>
-    <t>Costo</t>
-  </si>
-  <si>
     <t>IdManofacturado</t>
   </si>
   <si>
-    <t>IdManofacturadoDetalle</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Id ManofacturadoDetalle</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>Detalle Pedido</t>
-  </si>
-  <si>
-    <t>bife</t>
-  </si>
-  <si>
     <t>INSUMO</t>
   </si>
   <si>
@@ -137,18 +101,12 @@
     <t>IdNoInsumo</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>PLATO</t>
   </si>
   <si>
     <t>IdPLATO</t>
   </si>
   <si>
-    <t>IdNOINSUMO</t>
-  </si>
-  <si>
     <t>Coca 500 lts</t>
   </si>
   <si>
@@ -156,6 +114,84 @@
   </si>
   <si>
     <t>prepizza</t>
+  </si>
+  <si>
+    <t>id plato</t>
+  </si>
+  <si>
+    <t>porcion salsa</t>
+  </si>
+  <si>
+    <t>queso</t>
+  </si>
+  <si>
+    <t>1:N</t>
+  </si>
+  <si>
+    <t>lomo</t>
+  </si>
+  <si>
+    <t>1/2 pan</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>ID PEDIDO</t>
+  </si>
+  <si>
+    <t>IDPEDIDO</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Echazu</t>
+  </si>
+  <si>
+    <t>S,,,,,,,,</t>
+  </si>
+  <si>
+    <t>San Martin</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>N:1</t>
+  </si>
+  <si>
+    <t>IDCLIENTE</t>
+  </si>
+  <si>
+    <t>ID CLIENTE</t>
+  </si>
+  <si>
+    <t>ID DETALLE</t>
+  </si>
+  <si>
+    <t>IDNOINSUMO</t>
+  </si>
+  <si>
+    <t>DETALLE PEDIDO</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ID CANTIDADES</t>
+  </si>
+  <si>
+    <t>ID INSUMO</t>
+  </si>
+  <si>
+    <t>DETALLEPEDIDO</t>
   </si>
 </sst>
 </file>
@@ -177,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,18 +228,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -294,11 +324,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,52 +356,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A2D7DD-CC15-46CF-BF1D-64FE974C24B3}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,566 +739,643 @@
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="18" width="11.42578125" style="1"/>
-    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="17.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="14.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="18">
+        <v>43559</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1137678522</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2">
+        <v>844</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="18">
+        <v>42350</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I9" s="9" t="s">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="J11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="R11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2">
-        <v>20</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2">
         <v>25</v>
       </c>
-      <c r="M11" s="9">
-        <v>1</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="I14" s="2"/>
+      <c r="R13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="I15" s="2"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="I16" s="2"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="I20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="13" t="s">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="J22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="2" t="s">
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="6">
+        <v>2</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="10">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="2">
+      <c r="D25" s="2">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15</v>
+      </c>
+      <c r="J25" s="14">
         <v>2</v>
       </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="10">
+      <c r="K25" s="14"/>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K30" s="9"/>
+      <c r="L30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="10"/>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="5">
+        <v>10</v>
+      </c>
+      <c r="M35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J30" s="18">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="I31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2">
-        <v>20</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="K36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="5">
         <v>10</v>
       </c>
-      <c r="I33" s="8">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="8">
+      <c r="M36" s="5">
         <v>10</v>
       </c>
-      <c r="L33" s="8">
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="5">
+        <v>3</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2">
-        <v>50</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="2">
-        <v>15</v>
-      </c>
-      <c r="I34" s="8">
-        <v>2</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="8">
+      <c r="M37" s="5">
         <v>10</v>
       </c>
-      <c r="L34" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="2"/>
-      <c r="I35" s="8">
-        <v>3</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="8">
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="5">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="5">
         <v>10</v>
       </c>
-      <c r="L35" s="8">
+      <c r="M38" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="2"/>
-      <c r="I36" s="8">
-        <v>4</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="2"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="5">
+        <v>5</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="5">
+        <v>10</v>
+      </c>
+      <c r="M39" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I26:J26"/>
+  <mergeCells count="14">
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD/Prueba.xlsx
+++ b/BD/Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seba_\Source\Repos\EL BUEN SABOR\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864BC8B-96A7-4D09-AAF2-21814D7818A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E7DD50-AF5D-47DC-9AA9-D681FDC74192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4470" xr2:uid="{ABF19984-B040-4B8A-B3DE-DB4DD1DCE86F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Telefono</t>
   </si>
@@ -65,30 +65,9 @@
     <t>TipoEnvio</t>
   </si>
   <si>
-    <t>IdArticulo</t>
-  </si>
-  <si>
-    <t>Denominacion</t>
-  </si>
-  <si>
-    <t>PrecioCompra</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>bife Lomo</t>
   </si>
   <si>
-    <t>ganancia</t>
-  </si>
-  <si>
-    <t>IdManofacturado</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>INSUMO</t>
   </si>
   <si>
@@ -98,9 +77,6 @@
     <t>NO INSUMO</t>
   </si>
   <si>
-    <t>IdNoInsumo</t>
-  </si>
-  <si>
     <t>PLATO</t>
   </si>
   <si>
@@ -116,30 +92,15 @@
     <t>prepizza</t>
   </si>
   <si>
-    <t>id plato</t>
-  </si>
-  <si>
     <t>porcion salsa</t>
   </si>
   <si>
-    <t>queso</t>
-  </si>
-  <si>
-    <t>1:N</t>
-  </si>
-  <si>
     <t>lomo</t>
   </si>
   <si>
     <t>1/2 pan</t>
   </si>
   <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t>ID PEDIDO</t>
-  </si>
-  <si>
     <t>IDPEDIDO</t>
   </si>
   <si>
@@ -158,18 +119,9 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>N:1</t>
-  </si>
-  <si>
     <t>IDCLIENTE</t>
   </si>
   <si>
-    <t>ID CLIENTE</t>
-  </si>
-  <si>
-    <t>ID DETALLE</t>
-  </si>
-  <si>
     <t>IDNOINSUMO</t>
   </si>
   <si>
@@ -185,13 +137,37 @@
     <t>N</t>
   </si>
   <si>
-    <t>ID CANTIDADES</t>
-  </si>
-  <si>
-    <t>ID INSUMO</t>
-  </si>
-  <si>
-    <t>DETALLEPEDIDO</t>
+    <t>IDINSUMO</t>
+  </si>
+  <si>
+    <t>IDPLATO</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>DENOMINACION</t>
+  </si>
+  <si>
+    <t>GANANCIA</t>
+  </si>
+  <si>
+    <t>IDSUMO</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>IDCANTIDADES</t>
+  </si>
+  <si>
+    <t>INGREDIENTES</t>
+  </si>
+  <si>
+    <t>IDDETALLE</t>
   </si>
 </sst>
 </file>
@@ -228,12 +204,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -344,11 +320,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,9 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,37 +366,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,26 +729,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A2D7DD-CC15-46CF-BF1D-64FE974C24B3}">
-  <dimension ref="B2:S40"/>
+  <dimension ref="B2:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="9" width="13.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
     <col min="16" max="17" width="11.42578125" style="1"/>
@@ -756,35 +758,35 @@
     <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>43</v>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -793,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
@@ -820,11 +822,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="12">
         <v>43559</v>
       </c>
       <c r="D4" s="2">
@@ -843,38 +845,40 @@
         <v>1137678522</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P4" s="2">
         <v>844</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="18">
+        <v>28</v>
+      </c>
+      <c r="R4" s="12">
         <v>42350</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -885,12 +889,18 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -901,7 +911,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -917,465 +927,529 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="10"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="J11" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="R11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="J12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <v>1000</v>
-      </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2">
         <v>25</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="10"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
       <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="J22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="5">
+        <v>2</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="J25" s="21">
+        <v>2</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="22"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="J33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="4">
+        <v>10</v>
+      </c>
+      <c r="M35" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="4">
+        <v>10</v>
+      </c>
+      <c r="M36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="J37" s="4">
+        <v>3</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="4">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="J38" s="4">
+        <v>4</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="4">
+        <v>10</v>
+      </c>
+      <c r="M38" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="J39" s="10">
+        <v>5</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="10">
+        <v>20</v>
+      </c>
+      <c r="M39" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="J40" s="10">
+        <v>6</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="10">
         <v>50</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="10"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="J22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="M40" s="4">
         <v>10</v>
       </c>
-      <c r="J24" s="14">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="6">
-        <v>2</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F25" s="2">
-        <v>15</v>
-      </c>
-      <c r="J25" s="14">
-        <v>2</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>2</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K30" s="9"/>
-      <c r="L30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K32" s="10"/>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="5">
-        <v>10</v>
-      </c>
-      <c r="M35" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" s="5">
-        <v>2</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="5">
-        <v>10</v>
-      </c>
-      <c r="M36" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J37" s="5">
-        <v>3</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="5">
-        <v>10</v>
-      </c>
-      <c r="M37" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J38" s="5">
-        <v>4</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="5">
-        <v>10</v>
-      </c>
-      <c r="M38" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="5">
-        <v>5</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="5">
-        <v>10</v>
-      </c>
-      <c r="M39" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J22:N22"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
